--- a/01_開発プロセス/02_要求対応/部品選定_ボード製作.xlsx
+++ b/01_開発プロセス/02_要求対応/部品選定_ボード製作.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="必要な機能   " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>必要な機能</t>
     <rPh sb="0" eb="2">
@@ -28,14 +26,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPARTAN6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STM-mbed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機内ネットワーク(SPI)</t>
     <rPh sb="0" eb="2">
       <t>キナイ</t>
@@ -57,13 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12v, 1.2v, .3.3v, 5v電源</t>
-    <rPh sb="20" eb="22">
-      <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リプロ(業界標準SPIフラッシュ)</t>
     <rPh sb="4" eb="6">
       <t>ギョウカイ</t>
@@ -91,13 +74,133 @@
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/altera/10M04SCE144I7G/544-3055-ND/5044229</t>
+  </si>
+  <si>
+    <t>mbedの機能に頼ることとします</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モータドライバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインプロセッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.digikey.jp/product-detail/ja/inventek-systems/ISM43341-M4G-L44-C/1475-1039-ND/5419232</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12v, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.2v, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3.3v, 5v電源</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他チームのように簡単に、レギュレータで済ませてしまおうと思う</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非搭載予定</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>搭載予定</t>
+    <rPh sb="0" eb="2">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ISM43341-M4G-L44-C -&gt; 別プロジェクトで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>進行中</t>
+    </r>
+    <rPh sb="22" eb="23">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +216,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,12 +260,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -136,8 +298,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,103 +618,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="1.125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01_開発プロセス/02_要求対応/部品選定_ボード製作.xlsx
+++ b/01_開発プロセス/02_要求対応/部品選定_ボード製作.xlsx
@@ -43,16 +43,6 @@
     <t>5ghzEth通信</t>
     <rPh sb="7" eb="9">
       <t>ツウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リプロ(業界標準SPIフラッシュ)</t>
-    <rPh sb="4" eb="6">
-      <t>ギョウカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,6 +183,10 @@
     <rPh sb="30" eb="33">
       <t>シンコウチュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプログラミング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -302,9 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,130 +625,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
